--- a/Password-List-Template-TemplateLab.com_.xlsx
+++ b/Password-List-Template-TemplateLab.com_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RB00993323\Desktop\Rupak Java\ApachePOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FF8618-169E-478C-AD73-0650B789FA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3CB2A9-8941-4529-8583-782D67C96EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5203AE34-9DBB-4A48-ACF1-886904B60F35}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693F71C9-DB8C-49D1-81CA-CF9C8AF6D0D3}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
